--- a/LubanTools/Datas/__enums__.xlsx
+++ b/LubanTools/Datas/__enums__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\GDFrame_Qf\LubanTools\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProject\Anonymous\LubanTools\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902B18E7-6D03-43AA-B1A1-0061E433F80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2A1C8A-77D2-44FB-B15D-87BBA84C3336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -79,50 +79,80 @@
     <t>注释</t>
   </si>
   <si>
-    <t>item.EQuality</t>
-  </si>
-  <si>
-    <t>WHITE</t>
-  </si>
-  <si>
-    <t>白</t>
-  </si>
-  <si>
-    <t>最差品质</t>
-  </si>
-  <si>
-    <t>BLUE</t>
-  </si>
-  <si>
-    <t>蓝</t>
-  </si>
-  <si>
-    <t>蓝色的</t>
-  </si>
-  <si>
-    <t>PURPLE</t>
-  </si>
-  <si>
-    <t>紫</t>
-  </si>
-  <si>
-    <t>紫色的</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>红</t>
-  </si>
-  <si>
-    <t>最高品质</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>Heavy</t>
+  </si>
+  <si>
+    <t>轻型承重能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无承重能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型承重能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重型承重能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EBearingType   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETileMovementType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passable</t>
+  </si>
+  <si>
+    <t>UnPassable</t>
+  </si>
+  <si>
+    <t>可通行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可通行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>Floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDecorRenderBaseType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +163,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -180,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,6 +230,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,15 +512,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:K12"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
@@ -574,8 +618,8 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>19</v>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -583,60 +627,177 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J4">
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H7" t="s">
+      <c r="H8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H13" s="4"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H14" s="4"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H15" s="4"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H16" s="4"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H17" s="4"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H18" s="4"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H19" s="4"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H20" s="4"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H21" s="4"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H22" s="4"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
